--- a/5.GestionDotaciones/ControlEjecucionRecursosDotacion/MatrizControlEjecucionRecursosDotacion.xlsx
+++ b/5.GestionDotaciones/ControlEjecucionRecursosDotacion/MatrizControlEjecucionRecursosDotacion.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\ControlEjecucionRecursosDotacion\Control2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\ControlEjecucionRecursosDotacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CC2ED4-DC3F-47FD-AC9A-131395CD403D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D48C60-ABAB-4AC9-85F3-06D378AB1933}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="735" windowWidth="20280" windowHeight="10185" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Matriz" sheetId="1" r:id="rId2"/>
+    <sheet name="2018" sheetId="1" r:id="rId2"/>
+    <sheet name="2019" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Matriz!$A$1:$AE$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$A$2:$AF$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="183">
   <si>
     <t>CODIGO DE LA UDS (CUENTAME)</t>
   </si>
@@ -503,21 +504,106 @@
     <t>Resolución 12218 - Sep27 - 2018</t>
   </si>
   <si>
-    <t xml:space="preserve">Incluir la información de Matriz de  control entregada por Norte de Santander </t>
+    <t>Matriz de control contratación  y ejecución de dotaciones 2018</t>
+  </si>
+  <si>
+    <t>Matriz de control contratación  y ejecución de dotaciones 2019</t>
+  </si>
+  <si>
+    <t>CUCUTA DOS</t>
+  </si>
+  <si>
+    <t>CORPORACION SOCIAL Y EDUCATIVA FORMADORES SIGLO XXI</t>
+  </si>
+  <si>
+    <t>CDI GABRIEL ALFONSO CELIS</t>
+  </si>
+  <si>
+    <t>DOTACION INICIAL</t>
+  </si>
+  <si>
+    <t>Resolución 12218 del 27 de septiembre de 2018</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>5400100045060</t>
+  </si>
+  <si>
+    <t>ATENCIÓN A NIÑOS HASTA LOS 3 AÑOS EN ESTABLECIMIENTOS DE RECLUSIÓN A MUJERES INTEGRAL</t>
+  </si>
+  <si>
+    <t>FUNDACION CENABASTOS</t>
+  </si>
+  <si>
+    <t>INPEC FUNDACION CENABASTOS</t>
+  </si>
+  <si>
+    <t>Resolución 12218 del 27 de septiembre de 2019</t>
+  </si>
+  <si>
+    <t>ADICION</t>
+  </si>
+  <si>
+    <t>La dotacion aun no se encuentra legalizada por cuanto la adicion se realizó el 24 de diciembre de 2018.</t>
+  </si>
+  <si>
+    <t>Norte de Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Antioquia </t>
+  </si>
+  <si>
+    <t>Resolución 0261 del 18 enero de 2019</t>
+  </si>
+  <si>
+    <t>Dotación inicial</t>
+  </si>
+  <si>
+    <t>No reportado por la Regional</t>
+  </si>
+  <si>
+    <t>C.Z. Urabá</t>
+  </si>
+  <si>
+    <t>Apartadó</t>
+  </si>
+  <si>
+    <t>Resolución 0807 del  06 de febrero2019</t>
+  </si>
+  <si>
+    <t>VALOR ASIGNADO EN LA RESOLUCIÓN</t>
+  </si>
+  <si>
+    <t>C.Z. Cúcuta 1</t>
+  </si>
+  <si>
+    <t>Cúcuta</t>
+  </si>
+  <si>
+    <t>Semillitas del Futuro</t>
+  </si>
+  <si>
+    <t>Fecha probable de inicio de operación 4 de marzo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="9">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,11 +662,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -633,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -748,15 +864,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3D3D3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,53 +1105,119 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Millares [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Moneda" xfId="3" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1313,26 +1520,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1514,51 +1721,51 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="78"/>
-      <c r="E14" s="75" t="s">
+      <c r="D14" s="77"/>
+      <c r="E14" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="75" t="s">
+      <c r="G14" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="71" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="75"/>
       <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="73"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1588,51 +1795,51 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="75" t="s">
+      <c r="D18" s="77"/>
+      <c r="E18" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="75" t="s">
+      <c r="F18" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="75" t="s">
+      <c r="G18" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="75" t="s">
+      <c r="H18" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="79" t="s">
+      <c r="I18" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="72" t="s">
+      <c r="J18" s="71" t="s">
         <v>46</v>
       </c>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="73"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1662,51 +1869,51 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="74" t="s">
+      <c r="A22" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="75" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="75" t="s">
+      <c r="F22" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="75" t="s">
+      <c r="G22" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="75" t="s">
+      <c r="H22" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="79" t="s">
+      <c r="I22" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="71" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="73"/>
+      <c r="B23" s="75"/>
       <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="73"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1795,48 +2002,48 @@
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="78"/>
-      <c r="E29" s="75" t="s">
+      <c r="D29" s="77"/>
+      <c r="E29" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="75" t="s">
+      <c r="G29" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="79" t="s">
+      <c r="H29" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="71" t="s">
         <v>52</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="73"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="72"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
     </row>
@@ -1868,26 +2075,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="A29:A30"/>
@@ -1904,6 +2091,26 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -1912,11 +2119,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH93"/>
+  <dimension ref="A1:AI94"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8:E9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,318 +2141,233 @@
     <col min="12" max="12" width="18.28515625" style="66" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" style="66" customWidth="1"/>
     <col min="14" max="14" width="40.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" style="66" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="66" customWidth="1"/>
-    <col min="17" max="17" width="26.7109375" style="66" customWidth="1"/>
-    <col min="18" max="18" width="22.42578125" style="66" customWidth="1"/>
-    <col min="19" max="19" width="26.7109375" style="66" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="66" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="66" customWidth="1"/>
-    <col min="22" max="22" width="24.5703125" style="66" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" style="66" customWidth="1"/>
-    <col min="24" max="24" width="21.85546875" style="66" customWidth="1"/>
-    <col min="25" max="25" width="24.28515625" style="66" customWidth="1"/>
-    <col min="26" max="26" width="26.140625" style="66" customWidth="1"/>
-    <col min="27" max="27" width="25.140625" style="66" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" style="66" customWidth="1"/>
-    <col min="29" max="29" width="31.7109375" style="66" customWidth="1"/>
-    <col min="30" max="30" width="33.5703125" style="66" customWidth="1"/>
-    <col min="31" max="31" width="78.28515625" style="66" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="66"/>
-    <col min="33" max="33" width="15.42578125" style="66" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" style="66" customWidth="1"/>
-    <col min="35" max="16384" width="11.42578125" style="66"/>
+    <col min="15" max="15" width="40.28515625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="22" style="66" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" style="66" customWidth="1"/>
+    <col min="18" max="18" width="26.7109375" style="66" customWidth="1"/>
+    <col min="19" max="19" width="22.42578125" style="66" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" style="66" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" style="66" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" style="66" customWidth="1"/>
+    <col min="23" max="23" width="24.5703125" style="66" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" style="66" customWidth="1"/>
+    <col min="25" max="25" width="21.85546875" style="66" customWidth="1"/>
+    <col min="26" max="26" width="24.28515625" style="66" customWidth="1"/>
+    <col min="27" max="27" width="26.140625" style="66" customWidth="1"/>
+    <col min="28" max="28" width="25.140625" style="66" customWidth="1"/>
+    <col min="29" max="29" width="22.28515625" style="66" customWidth="1"/>
+    <col min="30" max="30" width="31.7109375" style="66" customWidth="1"/>
+    <col min="31" max="31" width="33.5703125" style="66" customWidth="1"/>
+    <col min="32" max="32" width="78.28515625" style="66" customWidth="1"/>
+    <col min="33" max="33" width="11.42578125" style="66"/>
+    <col min="34" max="34" width="15.42578125" style="66" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" style="66" customWidth="1"/>
+    <col min="36" max="16384" width="11.42578125" style="66"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+    </row>
+    <row r="2" spans="1:34" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="41" t="s">
+      <c r="O2" s="2"/>
+      <c r="P2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="AA2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AE2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="45" t="s">
+      <c r="AF2" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+    <row r="3" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="49">
         <v>151761144195</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B3" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G3" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H3" s="47">
         <v>100</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I3" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="50">
+      <c r="K3" s="50">
         <v>1419650</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M3" s="51">
         <v>141965000</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="O2" s="51">
-        <v>141965000</v>
-      </c>
-      <c r="P2" s="51">
-        <v>141965000</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="T2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" s="47">
-        <v>105</v>
-      </c>
-      <c r="W2" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="47">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="47">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="47">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="47">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="47"/>
-    </row>
-    <row r="3" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
-        <v>200011146665</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="47">
-        <v>300</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="47">
-        <v>946485</v>
-      </c>
-      <c r="L3" s="47">
-        <v>0</v>
-      </c>
-      <c r="M3" s="54">
-        <f>H3*K3</f>
-        <v>283945500</v>
       </c>
       <c r="N3" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="O3" s="54">
-        <f>M3</f>
-        <v>283945500</v>
-      </c>
-      <c r="P3" s="54">
-        <f>O3</f>
-        <v>283945500</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>61</v>
+      <c r="O3" s="47"/>
+      <c r="P3" s="51">
+        <v>141965000</v>
+      </c>
+      <c r="Q3" s="51">
+        <v>141965000</v>
       </c>
       <c r="R3" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="47" t="s">
-        <v>74</v>
-      </c>
       <c r="T3" s="47" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="U3" s="47" t="s">
         <v>61</v>
       </c>
       <c r="V3" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" s="55">
-        <v>43125</v>
+        <v>61</v>
+      </c>
+      <c r="W3" s="47">
+        <v>105</v>
       </c>
       <c r="X3" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="47" t="s">
-        <v>73</v>
-      </c>
       <c r="Z3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE3" s="47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="47">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="47">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="47">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="47"/>
+    </row>
+    <row r="4" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
-        <v>200011146674</v>
+        <v>200011146665</v>
       </c>
       <c r="B4" s="47" t="s">
         <v>66</v>
@@ -2263,10 +2385,10 @@
         <v>70</v>
       </c>
       <c r="G4" s="47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" s="47">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="I4" s="47" t="s">
         <v>72</v>
@@ -2275,52 +2397,50 @@
         <v>73</v>
       </c>
       <c r="K4" s="47">
-        <v>1419650</v>
+        <v>946485</v>
       </c>
       <c r="L4" s="47">
         <v>0</v>
       </c>
       <c r="M4" s="54">
-        <f t="shared" ref="M4:M5" si="0">H4*K4</f>
-        <v>198751000</v>
+        <f>H4*K4</f>
+        <v>283945500</v>
       </c>
       <c r="N4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="O4" s="54">
-        <f t="shared" ref="O4:O5" si="1">M4</f>
-        <v>198751000</v>
-      </c>
+      <c r="O4" s="47"/>
       <c r="P4" s="54">
-        <f t="shared" ref="P4:P5" si="2">O4</f>
-        <v>198751000</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>61</v>
+        <f>M4</f>
+        <v>283945500</v>
+      </c>
+      <c r="Q4" s="54">
+        <f>P4</f>
+        <v>283945500</v>
       </c>
       <c r="R4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="T4" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="47" t="s">
-        <v>61</v>
-      </c>
       <c r="U4" s="47" t="s">
         <v>61</v>
       </c>
       <c r="V4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="W4" s="55">
+      <c r="X4" s="55">
         <v>43125</v>
       </c>
-      <c r="X4" s="47" t="s">
+      <c r="Y4" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="Y4" s="47" t="s">
-        <v>73</v>
       </c>
       <c r="Z4" s="47" t="s">
         <v>73</v>
@@ -2340,10 +2460,13 @@
       <c r="AE4" s="47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF4" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
-        <v>200011146677</v>
+        <v>200011146674</v>
       </c>
       <c r="B5" s="47" t="s">
         <v>66</v>
@@ -2361,7 +2484,7 @@
         <v>70</v>
       </c>
       <c r="G5" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="47">
         <v>140</v>
@@ -2379,399 +2502,535 @@
         <v>0</v>
       </c>
       <c r="M5" s="54">
+        <f t="shared" ref="M5:M6" si="0">H5*K5</f>
+        <v>198751000</v>
+      </c>
+      <c r="N5" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" s="47"/>
+      <c r="P5" s="54">
+        <f t="shared" ref="P5:P6" si="1">M5</f>
+        <v>198751000</v>
+      </c>
+      <c r="Q5" s="54">
+        <f t="shared" ref="Q5:Q6" si="2">P5</f>
+        <v>198751000</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="V5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="W5" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" s="55">
+        <v>43125</v>
+      </c>
+      <c r="Y5" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>200011146677</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="47">
+        <v>140</v>
+      </c>
+      <c r="I6" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="47">
+        <v>1419650</v>
+      </c>
+      <c r="L6" s="47">
+        <v>0</v>
+      </c>
+      <c r="M6" s="54">
         <f t="shared" si="0"/>
         <v>198751000</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N6" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="O5" s="54">
+      <c r="O6" s="47"/>
+      <c r="P6" s="54">
         <f t="shared" si="1"/>
         <v>198751000</v>
       </c>
-      <c r="P5" s="54">
+      <c r="Q6" s="54">
         <f t="shared" si="2"/>
         <v>198751000</v>
       </c>
-      <c r="Q5" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="47" t="s">
+      <c r="R6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="T6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5" s="47" t="s">
+      <c r="U6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="V6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="55">
+      <c r="X6" s="55">
         <v>43125</v>
       </c>
-      <c r="X5" s="47" t="s">
+      <c r="Y6" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="Y5" s="47" t="s">
+      <c r="Z6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="47" t="s">
+      <c r="AA6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AA5" s="47" t="s">
+      <c r="AB6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AB5" s="47" t="s">
+      <c r="AC6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AC5" s="47" t="s">
+      <c r="AD6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AD5" s="47" t="s">
+      <c r="AE6" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="47" t="s">
+      <c r="AF6" s="47" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56">
+    <row r="7" spans="1:34" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="56">
         <v>850011146718</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B7" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D7" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="40">
-        <v>95</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="40">
-        <v>2018</v>
-      </c>
-      <c r="K6" s="57">
-        <v>234945</v>
-      </c>
-      <c r="L6" s="40">
-        <v>0</v>
-      </c>
-      <c r="M6" s="57">
-        <v>22319775</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="O6" s="57">
-        <v>22319775</v>
-      </c>
-      <c r="P6" s="57">
-        <v>22319775</v>
-      </c>
-      <c r="Q6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="S6" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="W6" s="58">
-        <v>43179</v>
-      </c>
-      <c r="X6" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y6" s="40">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="40">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="56">
-        <v>540011147184</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>87</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="43" t="s">
-        <v>88</v>
+      <c r="F7" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H7" s="40">
-        <v>300</v>
-      </c>
-      <c r="I7" s="40"/>
+        <v>95</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>72</v>
+      </c>
       <c r="J7" s="40">
         <v>2018</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40" t="s">
+      <c r="K7" s="57">
+        <v>234945</v>
+      </c>
+      <c r="L7" s="40">
+        <v>0</v>
+      </c>
+      <c r="M7" s="57">
+        <v>22319775</v>
+      </c>
+      <c r="N7" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="40"/>
+      <c r="P7" s="57">
+        <v>22319775</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>22319775</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S7" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="57">
+      <c r="U7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" s="58">
+        <v>43179</v>
+      </c>
+      <c r="Y7" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <v>540011147184</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="40">
+        <v>300</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40">
+        <v>2018</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="57">
         <v>283945500</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N8" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O8" s="43"/>
+      <c r="P8" s="57">
         <v>283945500</v>
       </c>
-      <c r="P7" s="57">
+      <c r="Q8" s="57">
         <v>283945500</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="R8" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="R7" s="40" t="s">
+      <c r="S8" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="S7" s="40" t="s">
+      <c r="T8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="T7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" s="40">
+      <c r="U8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="V8" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W8" s="40">
         <v>152</v>
       </c>
-      <c r="W7" s="58">
+      <c r="X8" s="58">
         <v>43276</v>
       </c>
-      <c r="X7" s="40" t="s">
+      <c r="Y8" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="40" t="s">
+      <c r="Z8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" s="40" t="s">
+      <c r="AA8" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-    </row>
-    <row r="8" spans="1:31" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
       <c r="AB8" s="40"/>
       <c r="AC8" s="40"/>
       <c r="AD8" s="40"/>
       <c r="AE8" s="40"/>
-    </row>
-    <row r="9" spans="1:31" s="59" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-    </row>
-    <row r="10" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="AF8" s="40"/>
+    </row>
+    <row r="9" spans="1:34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="85">
+        <v>543131148055</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="86" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="H9" s="86">
+        <v>60</v>
+      </c>
+      <c r="I9" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="87">
+        <v>276256</v>
+      </c>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" s="88">
+        <v>111038440</v>
+      </c>
+      <c r="P9" s="89">
+        <v>85179000</v>
+      </c>
+      <c r="Q9" s="90">
+        <v>85179000</v>
+      </c>
+      <c r="R9" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="91"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="W9" s="86">
+        <v>331</v>
+      </c>
+      <c r="X9" s="92">
+        <v>43434</v>
+      </c>
+      <c r="Y9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+    </row>
+    <row r="10" spans="1:34" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="93" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="86">
+        <v>15</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="86">
+        <v>2017</v>
+      </c>
+      <c r="K10" s="95">
+        <v>293887</v>
+      </c>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="O10" s="88">
+        <v>111038440</v>
+      </c>
+      <c r="P10" s="97">
+        <v>25000000</v>
+      </c>
+      <c r="Q10" s="97">
+        <v>25000000</v>
+      </c>
+      <c r="R10" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="86" t="s">
+        <v>168</v>
+      </c>
+      <c r="T10" s="91"/>
+      <c r="U10" s="86" t="s">
+        <v>162</v>
+      </c>
+      <c r="V10" s="91"/>
+      <c r="W10" s="86">
+        <v>507</v>
+      </c>
+      <c r="X10" s="92">
+        <v>43448</v>
+      </c>
+      <c r="Y10" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z10" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB10" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+    </row>
+    <row r="11" spans="1:34" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="56">
         <v>130011145702</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="40">
-        <v>200</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="57">
-        <v>66764</v>
-      </c>
-      <c r="L10" s="57">
-        <f>+H10*K10</f>
-        <v>13352800</v>
-      </c>
-      <c r="M10" s="57">
-        <v>13352800</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" s="57">
-        <v>13352800</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="S10" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="V10" s="40">
-        <v>1752018</v>
-      </c>
-      <c r="W10" s="58">
-        <v>43313</v>
-      </c>
-      <c r="X10" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="56">
-        <v>130011111804</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D11" s="40" t="s">
         <v>95</v>
@@ -2779,14 +3038,14 @@
       <c r="E11" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>102</v>
+      <c r="F11" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H11" s="40">
-        <v>346</v>
+        <v>200</v>
       </c>
       <c r="I11" s="40" t="s">
         <v>72</v>
@@ -2796,58 +3055,59 @@
         <v>66764</v>
       </c>
       <c r="L11" s="57">
-        <f>171*K11</f>
-        <v>11416644</v>
+        <f>+H11*K11</f>
+        <v>13352800</v>
       </c>
       <c r="M11" s="57">
-        <v>11416644</v>
+        <v>13352800</v>
       </c>
       <c r="N11" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O11" s="57">
-        <v>11416644</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>104</v>
+      <c r="O11" s="40"/>
+      <c r="P11" s="57">
+        <v>13352800</v>
       </c>
       <c r="Q11" s="40" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="R11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S11" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T11" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U11" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V11" s="40">
-        <v>2902018</v>
-      </c>
-      <c r="W11" s="58">
+      <c r="V11" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W11" s="40">
+        <v>1752018</v>
+      </c>
+      <c r="X11" s="58">
         <v>43313</v>
       </c>
-      <c r="X11" s="40" t="s">
+      <c r="Y11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
       <c r="AA11" s="40"/>
       <c r="AB11" s="40"/>
       <c r="AC11" s="40"/>
       <c r="AD11" s="40"/>
-      <c r="AE11" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="56">
-        <v>130011144978</v>
+        <v>130011111804</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>93</v>
@@ -2859,98 +3119,99 @@
         <v>95</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H12" s="40">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>72</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="57">
-        <v>234945</v>
+        <v>66764</v>
       </c>
       <c r="L12" s="57">
-        <f t="shared" ref="L12:L31" si="3">+H12*K12</f>
-        <v>58736250</v>
+        <f>171*K12</f>
+        <v>11416644</v>
       </c>
       <c r="M12" s="57">
-        <v>58736250</v>
+        <v>11416644</v>
       </c>
       <c r="N12" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O12" s="57">
-        <v>58736250</v>
-      </c>
-      <c r="P12" s="40" t="s">
+      <c r="O12" s="40"/>
+      <c r="P12" s="57">
+        <v>11416644</v>
+      </c>
+      <c r="Q12" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q12" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T12" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U12" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V12" s="40">
-        <v>2892018</v>
-      </c>
-      <c r="W12" s="58">
+      <c r="V12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" s="40">
+        <v>2902018</v>
+      </c>
+      <c r="X12" s="58">
         <v>43313</v>
       </c>
-      <c r="X12" s="40" t="s">
+      <c r="Y12" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
       <c r="AA12" s="40"/>
       <c r="AB12" s="40"/>
       <c r="AC12" s="40"/>
       <c r="AD12" s="40"/>
-      <c r="AE12" s="43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
-        <v>138361146705</v>
+        <v>130011144978</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="40" t="s">
-        <v>110</v>
+      <c r="F13" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H13" s="40">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="I13" s="40" t="s">
         <v>72</v>
@@ -2960,58 +3221,59 @@
         <v>234945</v>
       </c>
       <c r="L13" s="57">
-        <f t="shared" si="3"/>
-        <v>42290100</v>
+        <f t="shared" ref="L13:L32" si="3">+H13*K13</f>
+        <v>58736250</v>
       </c>
       <c r="M13" s="57">
-        <v>42290100</v>
+        <v>58736250</v>
       </c>
       <c r="N13" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O13" s="57">
-        <v>42290100</v>
-      </c>
-      <c r="P13" s="40" t="s">
+      <c r="O13" s="40"/>
+      <c r="P13" s="57">
+        <v>58736250</v>
+      </c>
+      <c r="Q13" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q13" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T13" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U13" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V13" s="40">
-        <v>2252018</v>
-      </c>
-      <c r="W13" s="58">
+      <c r="V13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W13" s="40">
+        <v>2892018</v>
+      </c>
+      <c r="X13" s="58">
         <v>43313</v>
       </c>
-      <c r="X13" s="40" t="s">
+      <c r="Y13" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
       <c r="AA13" s="40"/>
       <c r="AB13" s="40"/>
       <c r="AC13" s="40"/>
       <c r="AD13" s="40"/>
-      <c r="AE13" s="43" t="s">
+      <c r="AE13" s="40"/>
+      <c r="AF13" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="56">
-        <v>138361146706</v>
+        <v>138361146705</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>93</v>
@@ -3029,10 +3291,10 @@
         <v>110</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H14" s="40">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I14" s="40" t="s">
         <v>72</v>
@@ -3043,57 +3305,58 @@
       </c>
       <c r="L14" s="57">
         <f t="shared" si="3"/>
-        <v>23494500</v>
+        <v>42290100</v>
       </c>
       <c r="M14" s="57">
-        <v>23494500</v>
+        <v>42290100</v>
       </c>
       <c r="N14" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="57">
-        <v>23494500</v>
-      </c>
-      <c r="P14" s="40" t="s">
+      <c r="O14" s="40"/>
+      <c r="P14" s="57">
+        <v>42290100</v>
+      </c>
+      <c r="Q14" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q14" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S14" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T14" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U14" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V14" s="40">
+      <c r="V14" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="40">
         <v>2252018</v>
       </c>
-      <c r="W14" s="58">
+      <c r="X14" s="58">
         <v>43313</v>
       </c>
-      <c r="X14" s="40" t="s">
+      <c r="Y14" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
       <c r="AA14" s="40"/>
       <c r="AB14" s="40"/>
       <c r="AC14" s="40"/>
       <c r="AD14" s="40"/>
-      <c r="AE14" s="43" t="s">
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="56">
-        <v>138361146387</v>
+        <v>138361146706</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>93</v>
@@ -3105,77 +3368,78 @@
         <v>109</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H15" s="40">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>72</v>
       </c>
       <c r="J15" s="40"/>
       <c r="K15" s="57">
-        <v>66764</v>
+        <v>234945</v>
       </c>
       <c r="L15" s="57">
         <f t="shared" si="3"/>
-        <v>6943456</v>
+        <v>23494500</v>
       </c>
       <c r="M15" s="57">
-        <v>6943456</v>
+        <v>23494500</v>
       </c>
       <c r="N15" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O15" s="57">
-        <v>6943456</v>
-      </c>
-      <c r="P15" s="40" t="s">
+      <c r="O15" s="40"/>
+      <c r="P15" s="57">
+        <v>23494500</v>
+      </c>
+      <c r="Q15" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q15" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T15" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U15" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V15" s="40">
-        <v>1622018</v>
-      </c>
-      <c r="W15" s="58">
+      <c r="V15" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W15" s="40">
+        <v>2252018</v>
+      </c>
+      <c r="X15" s="58">
         <v>43313</v>
       </c>
-      <c r="X15" s="40" t="s">
+      <c r="Y15" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
       <c r="AA15" s="40"/>
       <c r="AB15" s="40"/>
       <c r="AC15" s="40"/>
       <c r="AD15" s="40"/>
-      <c r="AE15" s="43" t="s">
+      <c r="AE15" s="40"/>
+      <c r="AF15" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="56">
-        <v>138361144202</v>
+        <v>138361146387</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>93</v>
@@ -3193,10 +3457,10 @@
         <v>113</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H16" s="40">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="I16" s="40" t="s">
         <v>72</v>
@@ -3207,57 +3471,58 @@
       </c>
       <c r="L16" s="57">
         <f t="shared" si="3"/>
-        <v>27506768</v>
+        <v>6943456</v>
       </c>
       <c r="M16" s="57">
-        <v>27506768</v>
+        <v>6943456</v>
       </c>
       <c r="N16" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O16" s="57">
-        <v>27506768</v>
-      </c>
-      <c r="P16" s="40" t="s">
+      <c r="O16" s="40"/>
+      <c r="P16" s="57">
+        <v>6943456</v>
+      </c>
+      <c r="Q16" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q16" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S16" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T16" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V16" s="40">
+      <c r="V16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W16" s="40">
         <v>1622018</v>
       </c>
-      <c r="W16" s="58">
+      <c r="X16" s="58">
         <v>43313</v>
       </c>
-      <c r="X16" s="40" t="s">
+      <c r="Y16" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y16" s="40"/>
       <c r="Z16" s="40"/>
       <c r="AA16" s="40"/>
       <c r="AB16" s="40"/>
       <c r="AC16" s="40"/>
       <c r="AD16" s="40"/>
-      <c r="AE16" s="43" t="s">
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="56">
-        <v>138361144203</v>
+        <v>138361144202</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>93</v>
@@ -3275,10 +3540,10 @@
         <v>113</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="40">
-        <v>156</v>
+        <v>412</v>
       </c>
       <c r="I17" s="40" t="s">
         <v>72</v>
@@ -3289,56 +3554,59 @@
       </c>
       <c r="L17" s="57">
         <f t="shared" si="3"/>
-        <v>10415184</v>
+        <v>27506768</v>
       </c>
       <c r="M17" s="57">
-        <v>10415184</v>
+        <v>27506768</v>
       </c>
       <c r="N17" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O17" s="57">
-        <v>10415184</v>
-      </c>
-      <c r="P17" s="40" t="s">
+      <c r="O17" s="40"/>
+      <c r="P17" s="57">
+        <v>27506768</v>
+      </c>
+      <c r="Q17" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q17" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S17" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T17" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U17" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V17" s="40">
+      <c r="V17" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W17" s="40">
         <v>1622018</v>
       </c>
-      <c r="W17" s="58">
+      <c r="X17" s="58">
         <v>43313</v>
       </c>
-      <c r="X17" s="40" t="s">
+      <c r="Y17" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y17" s="40"/>
       <c r="Z17" s="40"/>
       <c r="AA17" s="40"/>
       <c r="AB17" s="40"/>
       <c r="AC17" s="40"/>
       <c r="AD17" s="40"/>
-      <c r="AE17" s="43" t="s">
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
+    <row r="18" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="56">
+        <v>138361144203</v>
+      </c>
       <c r="B18" s="40" t="s">
         <v>93</v>
       </c>
@@ -3349,78 +3617,77 @@
         <v>109</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="60" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="G18" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H18" s="40">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="I18" s="40" t="s">
         <v>72</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="57">
-        <v>234945</v>
+        <v>66764</v>
       </c>
       <c r="L18" s="57">
         <f t="shared" si="3"/>
-        <v>4698900</v>
+        <v>10415184</v>
       </c>
       <c r="M18" s="57">
-        <v>4698900</v>
+        <v>10415184</v>
       </c>
       <c r="N18" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O18" s="57">
-        <v>4698900</v>
-      </c>
-      <c r="P18" s="40" t="s">
+      <c r="O18" s="40"/>
+      <c r="P18" s="57">
+        <v>10415184</v>
+      </c>
+      <c r="Q18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q18" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S18" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T18" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U18" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V18" s="40">
-        <v>1612018</v>
-      </c>
-      <c r="W18" s="58">
+      <c r="V18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W18" s="40">
+        <v>1622018</v>
+      </c>
+      <c r="X18" s="58">
         <v>43313</v>
       </c>
-      <c r="X18" s="40" t="s">
+      <c r="Y18" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y18" s="40"/>
       <c r="Z18" s="40"/>
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
       <c r="AC18" s="40"/>
       <c r="AD18" s="40"/>
-      <c r="AE18" s="43" t="s">
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="56">
-        <v>138361128270</v>
-      </c>
+    <row r="19" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
       <c r="B19" s="40" t="s">
         <v>93</v>
       </c>
@@ -3428,7 +3695,7 @@
         <v>109</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E19" s="40" t="s">
         <v>106</v>
@@ -3437,10 +3704,10 @@
         <v>117</v>
       </c>
       <c r="G19" s="40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H19" s="40">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="I19" s="40" t="s">
         <v>72</v>
@@ -3451,139 +3718,141 @@
       </c>
       <c r="L19" s="57">
         <f t="shared" si="3"/>
-        <v>46989000</v>
+        <v>4698900</v>
       </c>
       <c r="M19" s="57">
-        <v>46989000</v>
+        <v>4698900</v>
       </c>
       <c r="N19" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O19" s="57">
-        <v>46989000</v>
-      </c>
-      <c r="P19" s="40" t="s">
+      <c r="O19" s="40"/>
+      <c r="P19" s="57">
+        <v>4698900</v>
+      </c>
+      <c r="Q19" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T19" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V19" s="40">
+      <c r="V19" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W19" s="40">
         <v>1612018</v>
       </c>
-      <c r="W19" s="58">
+      <c r="X19" s="58">
         <v>43313</v>
       </c>
-      <c r="X19" s="40" t="s">
+      <c r="Y19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y19" s="40"/>
       <c r="Z19" s="40"/>
       <c r="AA19" s="40"/>
       <c r="AB19" s="40"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="40"/>
-      <c r="AE19" s="43" t="s">
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="56">
-        <v>132441143240</v>
+        <v>138361128270</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="40" t="s">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="G20" s="40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H20" s="40">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="I20" s="40" t="s">
         <v>72</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="57">
-        <v>66765</v>
+        <v>234945</v>
       </c>
       <c r="L20" s="57">
         <f t="shared" si="3"/>
-        <v>3672075</v>
+        <v>46989000</v>
       </c>
       <c r="M20" s="57">
-        <v>3672075</v>
+        <v>46989000</v>
       </c>
       <c r="N20" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O20" s="57">
-        <v>3672075</v>
-      </c>
-      <c r="P20" s="40" t="s">
+      <c r="O20" s="40"/>
+      <c r="P20" s="57">
+        <v>46989000</v>
+      </c>
+      <c r="Q20" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q20" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S20" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S20" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T20" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V20" s="40">
-        <v>2912018</v>
-      </c>
-      <c r="W20" s="58">
+      <c r="V20" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W20" s="40">
+        <v>1612018</v>
+      </c>
+      <c r="X20" s="58">
         <v>43313</v>
       </c>
-      <c r="X20" s="40" t="s">
+      <c r="Y20" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y20" s="40"/>
       <c r="Z20" s="40"/>
       <c r="AA20" s="40"/>
       <c r="AB20" s="40"/>
       <c r="AC20" s="40"/>
       <c r="AD20" s="40"/>
-      <c r="AE20" s="43" t="s">
+      <c r="AE20" s="40"/>
+      <c r="AF20" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="56">
-        <v>132441146516</v>
+        <v>132441143240</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>93</v>
@@ -3601,7 +3870,7 @@
         <v>123</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" s="40">
         <v>55</v>
@@ -3623,131 +3892,133 @@
       <c r="N21" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="40"/>
+      <c r="P21" s="57">
         <v>3672075</v>
       </c>
-      <c r="P21" s="40" t="s">
+      <c r="Q21" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S21" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S21" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T21" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U21" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V21" s="40">
+      <c r="V21" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W21" s="40">
         <v>2912018</v>
       </c>
-      <c r="W21" s="58">
+      <c r="X21" s="58">
         <v>43313</v>
       </c>
-      <c r="X21" s="40" t="s">
+      <c r="Y21" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y21" s="40"/>
       <c r="Z21" s="40"/>
       <c r="AA21" s="40"/>
       <c r="AB21" s="40"/>
       <c r="AC21" s="40"/>
       <c r="AD21" s="40"/>
-      <c r="AE21" s="43" t="s">
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="56">
-        <v>136001113813</v>
+        <v>132441146516</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>93</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>123</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="40">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="I22" s="40" t="s">
         <v>72</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="57">
-        <v>66764</v>
+        <v>66765</v>
       </c>
       <c r="L22" s="57">
         <f t="shared" si="3"/>
-        <v>3338200</v>
+        <v>3672075</v>
       </c>
       <c r="M22" s="57">
-        <v>3338200</v>
+        <v>3672075</v>
       </c>
       <c r="N22" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O22" s="57">
-        <v>3338200</v>
-      </c>
-      <c r="P22" s="40" t="s">
+      <c r="O22" s="40"/>
+      <c r="P22" s="57">
+        <v>3672075</v>
+      </c>
+      <c r="Q22" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q22" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S22" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S22" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T22" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V22" s="40">
-        <v>3172018</v>
-      </c>
-      <c r="W22" s="58">
+      <c r="V22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W22" s="40">
+        <v>2912018</v>
+      </c>
+      <c r="X22" s="58">
         <v>43313</v>
       </c>
-      <c r="X22" s="40" t="s">
+      <c r="Y22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y22" s="40"/>
       <c r="Z22" s="40"/>
       <c r="AA22" s="40"/>
       <c r="AB22" s="40"/>
       <c r="AC22" s="40"/>
       <c r="AD22" s="40"/>
-      <c r="AE22" s="43" t="s">
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="56">
-        <v>136001113819</v>
+        <v>136001113813</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>93</v>
@@ -3765,7 +4036,7 @@
         <v>128</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H23" s="40">
         <v>50</v>
@@ -3787,49 +4058,50 @@
       <c r="N23" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="40"/>
+      <c r="P23" s="57">
         <v>3338200</v>
       </c>
-      <c r="P23" s="40" t="s">
+      <c r="Q23" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q23" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S23" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T23" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U23" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V23" s="40">
+      <c r="V23" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W23" s="40">
         <v>3172018</v>
       </c>
-      <c r="W23" s="58">
+      <c r="X23" s="58">
         <v>43313</v>
       </c>
-      <c r="X23" s="40" t="s">
+      <c r="Y23" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y23" s="40"/>
       <c r="Z23" s="40"/>
       <c r="AA23" s="40"/>
       <c r="AB23" s="40"/>
       <c r="AC23" s="40"/>
       <c r="AD23" s="40"/>
-      <c r="AE23" s="43" t="s">
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="56">
-        <v>131601146399</v>
+        <v>136001113819</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>93</v>
@@ -3838,16 +4110,16 @@
         <v>126</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="40" t="s">
-        <v>132</v>
+      <c r="F24" s="60" t="s">
+        <v>128</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H24" s="40">
         <v>50</v>
@@ -3869,49 +4141,50 @@
       <c r="N24" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="40"/>
+      <c r="P24" s="57">
         <v>3338200</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="Q24" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q24" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S24" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S24" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T24" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U24" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V24" s="40">
-        <v>2342018</v>
-      </c>
-      <c r="W24" s="58">
+      <c r="V24" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W24" s="40">
+        <v>3172018</v>
+      </c>
+      <c r="X24" s="58">
         <v>43313</v>
       </c>
-      <c r="X24" s="40" t="s">
+      <c r="Y24" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y24" s="40"/>
       <c r="Z24" s="40"/>
       <c r="AA24" s="40"/>
       <c r="AB24" s="40"/>
       <c r="AC24" s="40"/>
       <c r="AD24" s="40"/>
-      <c r="AE24" s="43" t="s">
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="56">
-        <v>131601146400</v>
+        <v>131601146399</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>93</v>
@@ -3929,7 +4202,7 @@
         <v>132</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H25" s="40">
         <v>50</v>
@@ -3951,49 +4224,50 @@
       <c r="N25" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O25" s="57">
+      <c r="O25" s="40"/>
+      <c r="P25" s="57">
         <v>3338200</v>
       </c>
-      <c r="P25" s="40" t="s">
+      <c r="Q25" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q25" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S25" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T25" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U25" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V25" s="40">
+      <c r="V25" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W25" s="40">
         <v>2342018</v>
       </c>
-      <c r="W25" s="58">
+      <c r="X25" s="58">
         <v>43313</v>
       </c>
-      <c r="X25" s="40" t="s">
+      <c r="Y25" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y25" s="40"/>
       <c r="Z25" s="40"/>
       <c r="AA25" s="40"/>
       <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
       <c r="AD25" s="40"/>
-      <c r="AE25" s="43" t="s">
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="56">
-        <v>135801146586</v>
+        <v>131601146400</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>93</v>
@@ -4002,16 +4276,16 @@
         <v>126</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>96</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H26" s="40">
         <v>50</v>
@@ -4033,49 +4307,50 @@
       <c r="N26" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="40"/>
+      <c r="P26" s="57">
         <v>3338200</v>
       </c>
-      <c r="P26" s="40" t="s">
+      <c r="Q26" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q26" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R26" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S26" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T26" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U26" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V26" s="40">
-        <v>2602018</v>
-      </c>
-      <c r="W26" s="58">
+      <c r="V26" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W26" s="40">
+        <v>2342018</v>
+      </c>
+      <c r="X26" s="58">
         <v>43313</v>
       </c>
-      <c r="X26" s="40" t="s">
+      <c r="Y26" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
       <c r="AD26" s="40"/>
-      <c r="AE26" s="43" t="s">
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="56">
-        <v>135801146587</v>
+        <v>135801146586</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>93</v>
@@ -4093,7 +4368,7 @@
         <v>136</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="40">
         <v>50</v>
@@ -4115,49 +4390,50 @@
       <c r="N27" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O27" s="57">
+      <c r="O27" s="40"/>
+      <c r="P27" s="57">
         <v>3338200</v>
       </c>
-      <c r="P27" s="40" t="s">
+      <c r="Q27" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q27" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R27" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S27" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T27" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U27" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V27" s="40">
+      <c r="V27" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W27" s="40">
         <v>2602018</v>
       </c>
-      <c r="W27" s="58">
+      <c r="X27" s="58">
         <v>43313</v>
       </c>
-      <c r="X27" s="40" t="s">
+      <c r="Y27" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y27" s="40"/>
       <c r="Z27" s="40"/>
       <c r="AA27" s="40"/>
       <c r="AB27" s="40"/>
       <c r="AC27" s="40"/>
       <c r="AD27" s="40"/>
-      <c r="AE27" s="43" t="s">
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="56">
-        <v>135801146588</v>
+        <v>135801146587</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>93</v>
@@ -4175,7 +4451,7 @@
         <v>136</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H28" s="40">
         <v>50</v>
@@ -4197,49 +4473,50 @@
       <c r="N28" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="40"/>
+      <c r="P28" s="57">
         <v>3338200</v>
       </c>
-      <c r="P28" s="40" t="s">
+      <c r="Q28" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q28" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R28" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S28" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T28" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U28" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V28" s="40">
+      <c r="V28" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W28" s="40">
         <v>2602018</v>
       </c>
-      <c r="W28" s="58">
+      <c r="X28" s="58">
         <v>43313</v>
       </c>
-      <c r="X28" s="40" t="s">
+      <c r="Y28" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y28" s="40"/>
       <c r="Z28" s="40"/>
       <c r="AA28" s="40"/>
       <c r="AB28" s="40"/>
       <c r="AC28" s="40"/>
       <c r="AD28" s="40"/>
-      <c r="AE28" s="43" t="s">
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="56">
-        <v>137441146258</v>
+        <v>135801146588</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>93</v>
@@ -4248,7 +4525,7 @@
         <v>126</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E29" s="40" t="s">
         <v>96</v>
@@ -4257,7 +4534,7 @@
         <v>136</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H29" s="40">
         <v>50</v>
@@ -4279,49 +4556,50 @@
       <c r="N29" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O29" s="57">
+      <c r="O29" s="40"/>
+      <c r="P29" s="57">
         <v>3338200</v>
       </c>
-      <c r="P29" s="40" t="s">
+      <c r="Q29" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q29" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R29" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S29" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S29" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T29" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U29" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V29" s="40">
+      <c r="V29" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W29" s="40">
         <v>2602018</v>
       </c>
-      <c r="W29" s="58">
+      <c r="X29" s="58">
         <v>43313</v>
       </c>
-      <c r="X29" s="40" t="s">
+      <c r="Y29" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y29" s="40"/>
       <c r="Z29" s="40"/>
       <c r="AA29" s="40"/>
       <c r="AB29" s="40"/>
       <c r="AC29" s="40"/>
       <c r="AD29" s="40"/>
-      <c r="AE29" s="43" t="s">
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="56">
-        <v>137441146232</v>
+        <v>137441146258</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>93</v>
@@ -4339,7 +4617,7 @@
         <v>136</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="40">
         <v>50</v>
@@ -4361,49 +4639,50 @@
       <c r="N30" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O30" s="57">
+      <c r="O30" s="40"/>
+      <c r="P30" s="57">
         <v>3338200</v>
       </c>
-      <c r="P30" s="40" t="s">
+      <c r="Q30" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q30" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R30" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S30" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T30" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U30" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V30" s="40">
+      <c r="V30" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W30" s="40">
         <v>2602018</v>
       </c>
-      <c r="W30" s="58">
+      <c r="X30" s="58">
         <v>43313</v>
       </c>
-      <c r="X30" s="40" t="s">
+      <c r="Y30" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y30" s="40"/>
       <c r="Z30" s="40"/>
       <c r="AA30" s="40"/>
       <c r="AB30" s="40"/>
       <c r="AC30" s="40"/>
       <c r="AD30" s="40"/>
-      <c r="AE30" s="43" t="s">
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="56">
-        <v>137441145428</v>
+        <v>137441146232</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>93</v>
@@ -4421,7 +4700,7 @@
         <v>136</v>
       </c>
       <c r="G31" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="40">
         <v>50</v>
@@ -4443,139 +4722,190 @@
       <c r="N31" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="O31" s="57">
+      <c r="O31" s="40"/>
+      <c r="P31" s="57">
         <v>3338200</v>
       </c>
-      <c r="P31" s="40" t="s">
+      <c r="Q31" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="Q31" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="R31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S31" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="S31" s="40" t="s">
-        <v>61</v>
-      </c>
       <c r="T31" s="40" t="s">
         <v>61</v>
       </c>
       <c r="U31" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="V31" s="40">
+      <c r="V31" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W31" s="40">
         <v>2602018</v>
       </c>
-      <c r="W31" s="58">
+      <c r="X31" s="58">
         <v>43313</v>
       </c>
-      <c r="X31" s="40" t="s">
+      <c r="Y31" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Y31" s="40"/>
       <c r="Z31" s="40"/>
       <c r="AA31" s="40"/>
       <c r="AB31" s="40"/>
       <c r="AC31" s="40"/>
       <c r="AD31" s="40"/>
-      <c r="AE31" s="43" t="s">
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="47" t="s">
+    <row r="32" spans="1:32" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="56">
+        <v>137441145428</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="40">
+        <v>50</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J32" s="40"/>
+      <c r="K32" s="57">
+        <v>66764</v>
+      </c>
+      <c r="L32" s="57">
+        <f t="shared" si="3"/>
+        <v>3338200</v>
+      </c>
+      <c r="M32" s="57">
+        <v>3338200</v>
+      </c>
+      <c r="N32" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="40"/>
+      <c r="P32" s="57">
+        <v>3338200</v>
+      </c>
+      <c r="Q32" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="R32" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="S32" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="T32" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="U32" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="V32" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="W32" s="40">
+        <v>2602018</v>
+      </c>
+      <c r="X32" s="58">
+        <v>43313</v>
+      </c>
+      <c r="Y32" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C33" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D33" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E33" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="F33" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47">
+      <c r="G33" s="47"/>
+      <c r="H33" s="47">
         <v>60</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I33" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="J32" s="47">
+      <c r="J33" s="47">
         <v>2018</v>
       </c>
-      <c r="K32" s="61">
+      <c r="K33" s="61">
         <v>1419650</v>
       </c>
-      <c r="M32" s="61">
+      <c r="M33" s="61">
         <v>85179000</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N33" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="O32" s="61">
+      <c r="O33" s="47"/>
+      <c r="P33" s="61">
         <v>85179000</v>
       </c>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="R32" s="47" t="s">
+      <c r="Q33" s="61"/>
+      <c r="R33" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S33" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="S32" s="47" t="s">
+      <c r="T33" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="T32" s="47" t="s">
+      <c r="U33" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="U32" s="47" t="s">
+      <c r="V33" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="V32" s="47" t="s">
+      <c r="W33" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="W32" s="55"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-    </row>
-    <row r="33" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
+      <c r="X33" s="55"/>
       <c r="Y33" s="47"/>
       <c r="Z33" s="47"/>
       <c r="AA33" s="47"/>
@@ -4583,8 +4913,9 @@
       <c r="AC33" s="47"/>
       <c r="AD33" s="47"/>
       <c r="AE33" s="47"/>
-    </row>
-    <row r="34" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF33" s="47"/>
+    </row>
+    <row r="34" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="49"/>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -4616,8 +4947,9 @@
       <c r="AC34" s="47"/>
       <c r="AD34" s="47"/>
       <c r="AE34" s="47"/>
-    </row>
-    <row r="35" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF34" s="47"/>
+    </row>
+    <row r="35" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="49"/>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -4649,8 +4981,9 @@
       <c r="AC35" s="47"/>
       <c r="AD35" s="47"/>
       <c r="AE35" s="47"/>
-    </row>
-    <row r="36" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF35" s="47"/>
+    </row>
+    <row r="36" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -4682,8 +5015,9 @@
       <c r="AC36" s="47"/>
       <c r="AD36" s="47"/>
       <c r="AE36" s="47"/>
-    </row>
-    <row r="37" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF36" s="47"/>
+    </row>
+    <row r="37" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="49"/>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -4715,8 +5049,9 @@
       <c r="AC37" s="47"/>
       <c r="AD37" s="47"/>
       <c r="AE37" s="47"/>
-    </row>
-    <row r="38" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF37" s="47"/>
+    </row>
+    <row r="38" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49"/>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -4748,8 +5083,9 @@
       <c r="AC38" s="47"/>
       <c r="AD38" s="47"/>
       <c r="AE38" s="47"/>
-    </row>
-    <row r="39" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF38" s="47"/>
+    </row>
+    <row r="39" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="49"/>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -4781,8 +5117,9 @@
       <c r="AC39" s="47"/>
       <c r="AD39" s="47"/>
       <c r="AE39" s="47"/>
-    </row>
-    <row r="40" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF39" s="47"/>
+    </row>
+    <row r="40" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49"/>
       <c r="B40" s="47"/>
       <c r="C40" s="47"/>
@@ -4814,8 +5151,9 @@
       <c r="AC40" s="47"/>
       <c r="AD40" s="47"/>
       <c r="AE40" s="47"/>
-    </row>
-    <row r="41" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF40" s="47"/>
+    </row>
+    <row r="41" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="49"/>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -4847,8 +5185,9 @@
       <c r="AC41" s="47"/>
       <c r="AD41" s="47"/>
       <c r="AE41" s="47"/>
-    </row>
-    <row r="42" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF41" s="47"/>
+    </row>
+    <row r="42" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49"/>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -4880,8 +5219,9 @@
       <c r="AC42" s="47"/>
       <c r="AD42" s="47"/>
       <c r="AE42" s="47"/>
-    </row>
-    <row r="43" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF42" s="47"/>
+    </row>
+    <row r="43" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -4913,8 +5253,9 @@
       <c r="AC43" s="47"/>
       <c r="AD43" s="47"/>
       <c r="AE43" s="47"/>
-    </row>
-    <row r="44" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF43" s="47"/>
+    </row>
+    <row r="44" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49"/>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -4946,8 +5287,9 @@
       <c r="AC44" s="47"/>
       <c r="AD44" s="47"/>
       <c r="AE44" s="47"/>
-    </row>
-    <row r="45" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF44" s="47"/>
+    </row>
+    <row r="45" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -4979,8 +5321,9 @@
       <c r="AC45" s="47"/>
       <c r="AD45" s="47"/>
       <c r="AE45" s="47"/>
-    </row>
-    <row r="46" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF45" s="47"/>
+    </row>
+    <row r="46" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="49"/>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -5012,8 +5355,9 @@
       <c r="AC46" s="47"/>
       <c r="AD46" s="47"/>
       <c r="AE46" s="47"/>
-    </row>
-    <row r="47" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF46" s="47"/>
+    </row>
+    <row r="47" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="49"/>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -5045,8 +5389,9 @@
       <c r="AC47" s="47"/>
       <c r="AD47" s="47"/>
       <c r="AE47" s="47"/>
-    </row>
-    <row r="48" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF47" s="47"/>
+    </row>
+    <row r="48" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="49"/>
       <c r="B48" s="47"/>
       <c r="C48" s="47"/>
@@ -5078,8 +5423,9 @@
       <c r="AC48" s="47"/>
       <c r="AD48" s="47"/>
       <c r="AE48" s="47"/>
-    </row>
-    <row r="49" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF48" s="47"/>
+    </row>
+    <row r="49" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="49"/>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -5111,8 +5457,9 @@
       <c r="AC49" s="47"/>
       <c r="AD49" s="47"/>
       <c r="AE49" s="47"/>
-    </row>
-    <row r="50" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF49" s="47"/>
+    </row>
+    <row r="50" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -5144,8 +5491,9 @@
       <c r="AC50" s="47"/>
       <c r="AD50" s="47"/>
       <c r="AE50" s="47"/>
-    </row>
-    <row r="51" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF50" s="47"/>
+    </row>
+    <row r="51" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="49"/>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -5177,8 +5525,9 @@
       <c r="AC51" s="47"/>
       <c r="AD51" s="47"/>
       <c r="AE51" s="47"/>
-    </row>
-    <row r="52" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF51" s="47"/>
+    </row>
+    <row r="52" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="49"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -5210,8 +5559,9 @@
       <c r="AC52" s="47"/>
       <c r="AD52" s="47"/>
       <c r="AE52" s="47"/>
-    </row>
-    <row r="53" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF52" s="47"/>
+    </row>
+    <row r="53" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49"/>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -5243,8 +5593,9 @@
       <c r="AC53" s="47"/>
       <c r="AD53" s="47"/>
       <c r="AE53" s="47"/>
-    </row>
-    <row r="54" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF53" s="47"/>
+    </row>
+    <row r="54" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
@@ -5276,8 +5627,9 @@
       <c r="AC54" s="47"/>
       <c r="AD54" s="47"/>
       <c r="AE54" s="47"/>
-    </row>
-    <row r="55" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF54" s="47"/>
+    </row>
+    <row r="55" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -5309,8 +5661,9 @@
       <c r="AC55" s="47"/>
       <c r="AD55" s="47"/>
       <c r="AE55" s="47"/>
-    </row>
-    <row r="56" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF55" s="47"/>
+    </row>
+    <row r="56" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -5342,8 +5695,9 @@
       <c r="AC56" s="47"/>
       <c r="AD56" s="47"/>
       <c r="AE56" s="47"/>
-    </row>
-    <row r="57" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF56" s="47"/>
+    </row>
+    <row r="57" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49"/>
       <c r="B57" s="47"/>
       <c r="C57" s="47"/>
@@ -5375,8 +5729,9 @@
       <c r="AC57" s="47"/>
       <c r="AD57" s="47"/>
       <c r="AE57" s="47"/>
-    </row>
-    <row r="58" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF57" s="47"/>
+    </row>
+    <row r="58" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49"/>
       <c r="B58" s="47"/>
       <c r="C58" s="47"/>
@@ -5408,8 +5763,9 @@
       <c r="AC58" s="47"/>
       <c r="AD58" s="47"/>
       <c r="AE58" s="47"/>
-    </row>
-    <row r="59" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF58" s="47"/>
+    </row>
+    <row r="59" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="49"/>
       <c r="B59" s="47"/>
       <c r="C59" s="47"/>
@@ -5425,7 +5781,7 @@
       <c r="M59" s="47"/>
       <c r="N59" s="47"/>
       <c r="O59" s="47"/>
-      <c r="P59" s="51"/>
+      <c r="P59" s="47"/>
       <c r="Q59" s="47"/>
       <c r="R59" s="47"/>
       <c r="S59" s="47"/>
@@ -5441,10 +5797,9 @@
       <c r="AC59" s="47"/>
       <c r="AD59" s="47"/>
       <c r="AE59" s="47"/>
-      <c r="AG59" s="62"/>
-      <c r="AH59" s="62"/>
-    </row>
-    <row r="60" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF59" s="47"/>
+    </row>
+    <row r="60" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49"/>
       <c r="B60" s="47"/>
       <c r="C60" s="47"/>
@@ -5460,8 +5815,8 @@
       <c r="M60" s="47"/>
       <c r="N60" s="47"/>
       <c r="O60" s="47"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="47"/>
+      <c r="P60" s="47"/>
+      <c r="Q60" s="51"/>
       <c r="R60" s="47"/>
       <c r="S60" s="47"/>
       <c r="T60" s="47"/>
@@ -5476,10 +5831,11 @@
       <c r="AC60" s="47"/>
       <c r="AD60" s="47"/>
       <c r="AE60" s="47"/>
-      <c r="AG60" s="62"/>
+      <c r="AF60" s="47"/>
       <c r="AH60" s="62"/>
-    </row>
-    <row r="61" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI60" s="62"/>
+    </row>
+    <row r="61" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49"/>
       <c r="B61" s="47"/>
       <c r="C61" s="47"/>
@@ -5495,8 +5851,8 @@
       <c r="M61" s="47"/>
       <c r="N61" s="47"/>
       <c r="O61" s="47"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="47"/>
+      <c r="P61" s="47"/>
+      <c r="Q61" s="51"/>
       <c r="R61" s="47"/>
       <c r="S61" s="47"/>
       <c r="T61" s="47"/>
@@ -5510,11 +5866,12 @@
       <c r="AB61" s="47"/>
       <c r="AC61" s="47"/>
       <c r="AD61" s="47"/>
-      <c r="AE61" s="48"/>
-      <c r="AG61" s="62"/>
+      <c r="AE61" s="47"/>
+      <c r="AF61" s="47"/>
       <c r="AH61" s="62"/>
-    </row>
-    <row r="62" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI61" s="62"/>
+    </row>
+    <row r="62" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49"/>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
@@ -5530,8 +5887,8 @@
       <c r="M62" s="47"/>
       <c r="N62" s="47"/>
       <c r="O62" s="47"/>
-      <c r="P62" s="51"/>
-      <c r="Q62" s="47"/>
+      <c r="P62" s="47"/>
+      <c r="Q62" s="51"/>
       <c r="R62" s="47"/>
       <c r="S62" s="47"/>
       <c r="T62" s="47"/>
@@ -5545,11 +5902,12 @@
       <c r="AB62" s="47"/>
       <c r="AC62" s="47"/>
       <c r="AD62" s="47"/>
-      <c r="AE62" s="48"/>
-      <c r="AG62" s="62"/>
+      <c r="AE62" s="47"/>
+      <c r="AF62" s="48"/>
       <c r="AH62" s="62"/>
-    </row>
-    <row r="63" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI62" s="62"/>
+    </row>
+    <row r="63" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49"/>
       <c r="B63" s="47"/>
       <c r="C63" s="47"/>
@@ -5565,8 +5923,8 @@
       <c r="M63" s="47"/>
       <c r="N63" s="47"/>
       <c r="O63" s="47"/>
-      <c r="P63" s="51"/>
-      <c r="Q63" s="47"/>
+      <c r="P63" s="47"/>
+      <c r="Q63" s="51"/>
       <c r="R63" s="47"/>
       <c r="S63" s="47"/>
       <c r="T63" s="47"/>
@@ -5581,8 +5939,11 @@
       <c r="AC63" s="47"/>
       <c r="AD63" s="47"/>
       <c r="AE63" s="47"/>
-    </row>
-    <row r="64" spans="1:34" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF63" s="48"/>
+      <c r="AH63" s="62"/>
+      <c r="AI63" s="62"/>
+    </row>
+    <row r="64" spans="1:35" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49"/>
       <c r="B64" s="47"/>
       <c r="C64" s="47"/>
@@ -5598,8 +5959,8 @@
       <c r="M64" s="47"/>
       <c r="N64" s="47"/>
       <c r="O64" s="47"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="47"/>
+      <c r="P64" s="47"/>
+      <c r="Q64" s="51"/>
       <c r="R64" s="47"/>
       <c r="S64" s="47"/>
       <c r="T64" s="47"/>
@@ -5614,8 +5975,9 @@
       <c r="AC64" s="47"/>
       <c r="AD64" s="47"/>
       <c r="AE64" s="47"/>
-    </row>
-    <row r="65" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF64" s="47"/>
+    </row>
+    <row r="65" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49"/>
       <c r="B65" s="47"/>
       <c r="C65" s="47"/>
@@ -5631,8 +5993,8 @@
       <c r="M65" s="47"/>
       <c r="N65" s="47"/>
       <c r="O65" s="47"/>
-      <c r="P65" s="51"/>
-      <c r="Q65" s="47"/>
+      <c r="P65" s="47"/>
+      <c r="Q65" s="51"/>
       <c r="R65" s="47"/>
       <c r="S65" s="47"/>
       <c r="T65" s="47"/>
@@ -5647,8 +6009,9 @@
       <c r="AC65" s="47"/>
       <c r="AD65" s="47"/>
       <c r="AE65" s="47"/>
-    </row>
-    <row r="66" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF65" s="47"/>
+    </row>
+    <row r="66" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49"/>
       <c r="B66" s="47"/>
       <c r="C66" s="47"/>
@@ -5664,8 +6027,8 @@
       <c r="M66" s="47"/>
       <c r="N66" s="47"/>
       <c r="O66" s="47"/>
-      <c r="P66" s="51"/>
-      <c r="Q66" s="47"/>
+      <c r="P66" s="47"/>
+      <c r="Q66" s="51"/>
       <c r="R66" s="47"/>
       <c r="S66" s="47"/>
       <c r="T66" s="47"/>
@@ -5680,8 +6043,9 @@
       <c r="AC66" s="47"/>
       <c r="AD66" s="47"/>
       <c r="AE66" s="47"/>
-    </row>
-    <row r="67" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF66" s="47"/>
+    </row>
+    <row r="67" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49"/>
       <c r="B67" s="47"/>
       <c r="C67" s="47"/>
@@ -5697,8 +6061,8 @@
       <c r="M67" s="47"/>
       <c r="N67" s="47"/>
       <c r="O67" s="47"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="47"/>
+      <c r="P67" s="47"/>
+      <c r="Q67" s="51"/>
       <c r="R67" s="47"/>
       <c r="S67" s="47"/>
       <c r="T67" s="47"/>
@@ -5713,8 +6077,9 @@
       <c r="AC67" s="47"/>
       <c r="AD67" s="47"/>
       <c r="AE67" s="47"/>
-    </row>
-    <row r="68" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF67" s="47"/>
+    </row>
+    <row r="68" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49"/>
       <c r="B68" s="47"/>
       <c r="C68" s="47"/>
@@ -5730,8 +6095,8 @@
       <c r="M68" s="47"/>
       <c r="N68" s="47"/>
       <c r="O68" s="47"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="47"/>
+      <c r="P68" s="47"/>
+      <c r="Q68" s="51"/>
       <c r="R68" s="47"/>
       <c r="S68" s="47"/>
       <c r="T68" s="47"/>
@@ -5746,8 +6111,9 @@
       <c r="AC68" s="47"/>
       <c r="AD68" s="47"/>
       <c r="AE68" s="47"/>
-    </row>
-    <row r="69" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF68" s="47"/>
+    </row>
+    <row r="69" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49"/>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
@@ -5763,8 +6129,8 @@
       <c r="M69" s="47"/>
       <c r="N69" s="47"/>
       <c r="O69" s="47"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="63"/>
       <c r="R69" s="47"/>
       <c r="S69" s="47"/>
       <c r="T69" s="47"/>
@@ -5779,8 +6145,9 @@
       <c r="AC69" s="47"/>
       <c r="AD69" s="47"/>
       <c r="AE69" s="47"/>
-    </row>
-    <row r="70" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF69" s="47"/>
+    </row>
+    <row r="70" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49"/>
       <c r="B70" s="47"/>
       <c r="C70" s="47"/>
@@ -5796,8 +6163,8 @@
       <c r="M70" s="47"/>
       <c r="N70" s="47"/>
       <c r="O70" s="47"/>
-      <c r="P70" s="51"/>
-      <c r="Q70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="63"/>
       <c r="R70" s="47"/>
       <c r="S70" s="47"/>
       <c r="T70" s="47"/>
@@ -5812,8 +6179,9 @@
       <c r="AC70" s="47"/>
       <c r="AD70" s="47"/>
       <c r="AE70" s="47"/>
-    </row>
-    <row r="71" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF70" s="47"/>
+    </row>
+    <row r="71" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49"/>
       <c r="B71" s="47"/>
       <c r="C71" s="47"/>
@@ -5829,8 +6197,8 @@
       <c r="M71" s="47"/>
       <c r="N71" s="47"/>
       <c r="O71" s="47"/>
-      <c r="P71" s="51"/>
-      <c r="Q71" s="47"/>
+      <c r="P71" s="47"/>
+      <c r="Q71" s="51"/>
       <c r="R71" s="47"/>
       <c r="S71" s="47"/>
       <c r="T71" s="47"/>
@@ -5845,8 +6213,9 @@
       <c r="AC71" s="47"/>
       <c r="AD71" s="47"/>
       <c r="AE71" s="47"/>
-    </row>
-    <row r="72" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF71" s="47"/>
+    </row>
+    <row r="72" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49"/>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
@@ -5862,8 +6231,8 @@
       <c r="M72" s="47"/>
       <c r="N72" s="47"/>
       <c r="O72" s="47"/>
-      <c r="P72" s="51"/>
-      <c r="Q72" s="47"/>
+      <c r="P72" s="47"/>
+      <c r="Q72" s="51"/>
       <c r="R72" s="47"/>
       <c r="S72" s="47"/>
       <c r="T72" s="47"/>
@@ -5878,8 +6247,9 @@
       <c r="AC72" s="47"/>
       <c r="AD72" s="47"/>
       <c r="AE72" s="47"/>
-    </row>
-    <row r="73" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF72" s="47"/>
+    </row>
+    <row r="73" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49"/>
       <c r="B73" s="47"/>
       <c r="C73" s="47"/>
@@ -5895,8 +6265,8 @@
       <c r="M73" s="47"/>
       <c r="N73" s="47"/>
       <c r="O73" s="47"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="47"/>
+      <c r="P73" s="47"/>
+      <c r="Q73" s="51"/>
       <c r="R73" s="47"/>
       <c r="S73" s="47"/>
       <c r="T73" s="47"/>
@@ -5911,8 +6281,9 @@
       <c r="AC73" s="47"/>
       <c r="AD73" s="47"/>
       <c r="AE73" s="47"/>
-    </row>
-    <row r="74" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF73" s="47"/>
+    </row>
+    <row r="74" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49"/>
       <c r="B74" s="47"/>
       <c r="C74" s="47"/>
@@ -5928,8 +6299,8 @@
       <c r="M74" s="47"/>
       <c r="N74" s="47"/>
       <c r="O74" s="47"/>
-      <c r="P74" s="51"/>
-      <c r="Q74" s="47"/>
+      <c r="P74" s="47"/>
+      <c r="Q74" s="51"/>
       <c r="R74" s="47"/>
       <c r="S74" s="47"/>
       <c r="T74" s="47"/>
@@ -5944,8 +6315,9 @@
       <c r="AC74" s="47"/>
       <c r="AD74" s="47"/>
       <c r="AE74" s="47"/>
-    </row>
-    <row r="75" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF74" s="47"/>
+    </row>
+    <row r="75" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49"/>
       <c r="B75" s="47"/>
       <c r="C75" s="47"/>
@@ -5961,8 +6333,8 @@
       <c r="M75" s="47"/>
       <c r="N75" s="47"/>
       <c r="O75" s="47"/>
-      <c r="P75" s="51"/>
-      <c r="Q75" s="47"/>
+      <c r="P75" s="47"/>
+      <c r="Q75" s="51"/>
       <c r="R75" s="47"/>
       <c r="S75" s="47"/>
       <c r="T75" s="47"/>
@@ -5977,8 +6349,9 @@
       <c r="AC75" s="47"/>
       <c r="AD75" s="47"/>
       <c r="AE75" s="47"/>
-    </row>
-    <row r="76" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF75" s="47"/>
+    </row>
+    <row r="76" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49"/>
       <c r="B76" s="47"/>
       <c r="C76" s="47"/>
@@ -5994,8 +6367,8 @@
       <c r="M76" s="47"/>
       <c r="N76" s="47"/>
       <c r="O76" s="47"/>
-      <c r="P76" s="51"/>
-      <c r="Q76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="51"/>
       <c r="R76" s="47"/>
       <c r="S76" s="47"/>
       <c r="T76" s="47"/>
@@ -6010,8 +6383,9 @@
       <c r="AC76" s="47"/>
       <c r="AD76" s="47"/>
       <c r="AE76" s="47"/>
-    </row>
-    <row r="77" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF76" s="47"/>
+    </row>
+    <row r="77" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
@@ -6027,8 +6401,8 @@
       <c r="M77" s="47"/>
       <c r="N77" s="47"/>
       <c r="O77" s="47"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="47"/>
+      <c r="P77" s="47"/>
+      <c r="Q77" s="51"/>
       <c r="R77" s="47"/>
       <c r="S77" s="47"/>
       <c r="T77" s="47"/>
@@ -6043,8 +6417,9 @@
       <c r="AC77" s="47"/>
       <c r="AD77" s="47"/>
       <c r="AE77" s="47"/>
-    </row>
-    <row r="78" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF77" s="47"/>
+    </row>
+    <row r="78" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
@@ -6060,8 +6435,8 @@
       <c r="M78" s="47"/>
       <c r="N78" s="47"/>
       <c r="O78" s="47"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="47"/>
+      <c r="P78" s="47"/>
+      <c r="Q78" s="51"/>
       <c r="R78" s="47"/>
       <c r="S78" s="47"/>
       <c r="T78" s="47"/>
@@ -6076,8 +6451,9 @@
       <c r="AC78" s="47"/>
       <c r="AD78" s="47"/>
       <c r="AE78" s="47"/>
-    </row>
-    <row r="79" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF78" s="47"/>
+    </row>
+    <row r="79" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
@@ -6093,8 +6469,8 @@
       <c r="M79" s="47"/>
       <c r="N79" s="47"/>
       <c r="O79" s="47"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="47"/>
+      <c r="P79" s="47"/>
+      <c r="Q79" s="51"/>
       <c r="R79" s="47"/>
       <c r="S79" s="47"/>
       <c r="T79" s="47"/>
@@ -6109,8 +6485,9 @@
       <c r="AC79" s="47"/>
       <c r="AD79" s="47"/>
       <c r="AE79" s="47"/>
-    </row>
-    <row r="80" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF79" s="47"/>
+    </row>
+    <row r="80" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49"/>
       <c r="B80" s="47"/>
       <c r="C80" s="47"/>
@@ -6126,8 +6503,8 @@
       <c r="M80" s="47"/>
       <c r="N80" s="47"/>
       <c r="O80" s="47"/>
-      <c r="P80" s="51"/>
-      <c r="Q80" s="47"/>
+      <c r="P80" s="47"/>
+      <c r="Q80" s="51"/>
       <c r="R80" s="47"/>
       <c r="S80" s="47"/>
       <c r="T80" s="47"/>
@@ -6142,8 +6519,9 @@
       <c r="AC80" s="47"/>
       <c r="AD80" s="47"/>
       <c r="AE80" s="47"/>
-    </row>
-    <row r="81" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF80" s="47"/>
+    </row>
+    <row r="81" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49"/>
       <c r="B81" s="47"/>
       <c r="C81" s="47"/>
@@ -6159,8 +6537,8 @@
       <c r="M81" s="47"/>
       <c r="N81" s="47"/>
       <c r="O81" s="47"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="47"/>
+      <c r="P81" s="47"/>
+      <c r="Q81" s="51"/>
       <c r="R81" s="47"/>
       <c r="S81" s="47"/>
       <c r="T81" s="47"/>
@@ -6175,67 +6553,409 @@
       <c r="AC81" s="47"/>
       <c r="AD81" s="47"/>
       <c r="AE81" s="47"/>
-    </row>
-    <row r="82" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="64"/>
-    </row>
-    <row r="83" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF81" s="47"/>
+    </row>
+    <row r="82" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="49"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="47"/>
+      <c r="I82" s="47"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="47"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="47"/>
+      <c r="O82" s="47"/>
+      <c r="P82" s="47"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="47"/>
+      <c r="S82" s="47"/>
+      <c r="T82" s="47"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="47"/>
+      <c r="Z82" s="47"/>
+      <c r="AA82" s="47"/>
+      <c r="AB82" s="47"/>
+      <c r="AC82" s="47"/>
+      <c r="AD82" s="47"/>
+      <c r="AE82" s="47"/>
+      <c r="AF82" s="47"/>
+    </row>
+    <row r="83" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="64"/>
     </row>
-    <row r="84" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="64"/>
     </row>
-    <row r="85" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="64"/>
     </row>
-    <row r="86" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="64"/>
     </row>
-    <row r="87" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="64"/>
     </row>
-    <row r="88" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="64"/>
     </row>
-    <row r="89" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="64"/>
     </row>
-    <row r="90" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="64"/>
     </row>
-    <row r="91" spans="1:31" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="64"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O92" s="67">
+    <row r="92" spans="1:32" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="64"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P93" s="67">
         <v>3339965</v>
       </c>
-      <c r="P92" s="68">
-        <f>+O93-O92</f>
+      <c r="Q93" s="68">
+        <f>+P94-P93</f>
         <v>3240602</v>
       </c>
-      <c r="R92" s="69">
-        <f>+P93-P92</f>
+      <c r="S93" s="69">
+        <f>+Q94-Q93</f>
         <v>-3240602</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O93" s="70">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P94" s="70">
         <v>6580567</v>
       </c>
-      <c r="P93" s="70">
-        <f>SUM(P59:P62)</f>
+      <c r="Q94" s="70">
+        <f>SUM(Q60:Q63)</f>
         <v>0</v>
       </c>
-      <c r="R93" s="69"/>
+      <c r="S94" s="69"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE32" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:AF33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Relacione el numero del contrato, ya sea nuevo o vigente con adición." sqref="F33:F81" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DOTACIÓN ASIGNADA" prompt="Relacione el valor final de la dotación asignada a la UDS." sqref="P63:P69" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Relacione el numero del contrato, ya sea nuevo o vigente con adición." sqref="F34:F82" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="DOTACIÓN ASIGNADA" prompt="Relacione el valor final de la dotación asignada a la UDS." sqref="Q64:Q70" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7886DE60-8548-4132-998D-1F9F20310522}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" customWidth="1"/>
+    <col min="15" max="29" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" s="66" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+    </row>
+    <row r="2" spans="1:30" s="106" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="100" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="101" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="105" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="91"/>
+      <c r="B3" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="H3" s="60">
+        <v>300</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="M3" s="107">
+        <v>72809400</v>
+      </c>
+      <c r="N3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="P3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="S3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="T3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="W3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="X3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC3" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD3" s="91" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="60">
+        <v>100</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="107">
+        <v>141965000</v>
+      </c>
+      <c r="N4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="P4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="R4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="S4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="T4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="U4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="V4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="W4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="X4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC4" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD4" s="91" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5.GestionDotaciones/ControlEjecucionRecursosDotacion/MatrizControlEjecucionRecursosDotacion.xlsx
+++ b/5.GestionDotaciones/ControlEjecucionRecursosDotacion/MatrizControlEjecucionRecursosDotacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea Ospina Patiño\Documents\GitHub\Dotaciones2019\5.GestionDotaciones\ControlEjecucionRecursosDotacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D48C60-ABAB-4AC9-85F3-06D378AB1933}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6984C4F4-49A9-49BF-900F-3030B2E4D1BF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="735" windowWidth="20280" windowHeight="10185" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="2" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="184">
   <si>
     <t>CODIGO DE LA UDS (CUENTAME)</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>Fecha probable de inicio de operación 4 de marzo</t>
+  </si>
+  <si>
+    <t>Mi Vecino Protector</t>
   </si>
 </sst>
 </file>
@@ -1105,48 +1108,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,6 +1173,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="6" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1520,26 +1523,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1721,51 +1724,51 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="74" t="s">
+      <c r="D14" s="101"/>
+      <c r="E14" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="95" t="s">
         <v>44</v>
       </c>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="72"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="96"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -1795,51 +1798,51 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="74" t="s">
+      <c r="D18" s="101"/>
+      <c r="E18" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="74" t="s">
+      <c r="G18" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="74" t="s">
+      <c r="H18" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="80" t="s">
+      <c r="I18" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="71" t="s">
+      <c r="J18" s="95" t="s">
         <v>46</v>
       </c>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="72"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="96"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1869,51 +1872,51 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="74" t="s">
+      <c r="D22" s="101"/>
+      <c r="E22" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="74" t="s">
+      <c r="H22" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I22" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="71" t="s">
+      <c r="J22" s="95" t="s">
         <v>47</v>
       </c>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="72"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="96"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2002,48 +2005,48 @@
       <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="77"/>
-      <c r="E29" s="74" t="s">
+      <c r="D29" s="101"/>
+      <c r="E29" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="74" t="s">
+      <c r="G29" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="H29" s="80" t="s">
+      <c r="H29" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="71" t="s">
+      <c r="I29" s="95" t="s">
         <v>52</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="75"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="72"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="96"/>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
     </row>
@@ -2075,6 +2078,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="J22:J23"/>
     <mergeCell ref="A29:A30"/>
@@ -2091,26 +2114,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2121,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
@@ -2166,14 +2169,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
     </row>
     <row r="2" spans="1:34" s="46" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2839,37 +2842,37 @@
       <c r="AF8" s="40"/>
     </row>
     <row r="9" spans="1:34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="85">
+      <c r="A9" s="71">
         <v>543131148055</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="H9" s="86">
+      <c r="H9" s="72">
         <v>60</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="73">
         <v>276256</v>
       </c>
       <c r="L9" s="66"/>
@@ -2877,146 +2880,146 @@
       <c r="N9" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="O9" s="88">
+      <c r="O9" s="74">
         <v>111038440</v>
       </c>
-      <c r="P9" s="89">
+      <c r="P9" s="75">
         <v>85179000</v>
       </c>
-      <c r="Q9" s="90">
+      <c r="Q9" s="76">
         <v>85179000</v>
       </c>
-      <c r="R9" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="86" t="s">
+      <c r="R9" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="86" t="s">
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="W9" s="86">
+      <c r="W9" s="72">
         <v>331</v>
       </c>
-      <c r="X9" s="92">
+      <c r="X9" s="78">
         <v>43434</v>
       </c>
-      <c r="Y9" s="86" t="s">
+      <c r="Y9" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" s="86" t="s">
+      <c r="Z9" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AA9" s="86" t="s">
+      <c r="AA9" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AB9" s="86" t="s">
+      <c r="AB9" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AC9" s="86" t="s">
+      <c r="AC9" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="86" t="s">
+      <c r="AD9" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AE9" s="86" t="s">
+      <c r="AE9" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AF9" s="86" t="s">
+      <c r="AF9" s="72" t="s">
         <v>73</v>
       </c>
       <c r="AG9" s="66"/>
       <c r="AH9" s="66"/>
     </row>
     <row r="10" spans="1:34" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="94" t="s">
+      <c r="E10" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="H10" s="86">
+      <c r="H10" s="72">
         <v>15</v>
       </c>
-      <c r="I10" s="86" t="s">
+      <c r="I10" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="86">
+      <c r="J10" s="72">
         <v>2017</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="81">
         <v>293887</v>
       </c>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
-      <c r="N10" s="96" t="s">
+      <c r="N10" s="82" t="s">
         <v>167</v>
       </c>
-      <c r="O10" s="88">
+      <c r="O10" s="74">
         <v>111038440</v>
       </c>
-      <c r="P10" s="97">
+      <c r="P10" s="83">
         <v>25000000</v>
       </c>
-      <c r="Q10" s="97">
+      <c r="Q10" s="83">
         <v>25000000</v>
       </c>
-      <c r="R10" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="86" t="s">
+      <c r="R10" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="T10" s="91"/>
-      <c r="U10" s="86" t="s">
+      <c r="T10" s="77"/>
+      <c r="U10" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="V10" s="91"/>
-      <c r="W10" s="86">
+      <c r="V10" s="77"/>
+      <c r="W10" s="72">
         <v>507</v>
       </c>
-      <c r="X10" s="92">
+      <c r="X10" s="78">
         <v>43448</v>
       </c>
-      <c r="Y10" s="86" t="s">
+      <c r="Y10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="Z10" s="86" t="s">
+      <c r="Z10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AA10" s="86" t="s">
+      <c r="AA10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AB10" s="86" t="s">
+      <c r="AB10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AC10" s="86" t="s">
+      <c r="AC10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AD10" s="86" t="s">
+      <c r="AD10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AE10" s="86" t="s">
+      <c r="AE10" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="AF10" s="94" t="s">
+      <c r="AF10" s="80" t="s">
         <v>169</v>
       </c>
       <c r="AG10" s="66"/>
@@ -6660,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7886DE60-8548-4132-998D-1F9F20310522}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6680,54 +6683,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="66" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-    </row>
-    <row r="2" spans="1:30" s="106" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+    </row>
+    <row r="2" spans="1:30" s="92" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="99" t="s">
+      <c r="F2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="G2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="H2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="85" t="s">
         <v>178</v>
       </c>
       <c r="N2" s="41" t="s">
@@ -6736,219 +6739,221 @@
       <c r="O2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="101" t="s">
+      <c r="P2" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="101" t="s">
+      <c r="Q2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="101" t="s">
+      <c r="R2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="101" t="s">
+      <c r="S2" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="101" t="s">
+      <c r="T2" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="101" t="s">
+      <c r="U2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="101" t="s">
+      <c r="V2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="101" t="s">
+      <c r="W2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="101" t="s">
+      <c r="X2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="102" t="s">
+      <c r="Y2" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="103" t="s">
+      <c r="Z2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="101" t="s">
+      <c r="AA2" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="101" t="s">
+      <c r="AB2" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="104" t="s">
+      <c r="AC2" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="105" t="s">
+      <c r="AD2" s="91" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="91" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="77" t="s">
         <v>176</v>
       </c>
       <c r="E3" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91" t="s">
+      <c r="F3" s="77"/>
+      <c r="G3" s="77" t="s">
         <v>181</v>
       </c>
       <c r="H3" s="60">
         <v>300</v>
       </c>
-      <c r="I3" s="91" t="s">
+      <c r="I3" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="91" t="s">
+      <c r="J3" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="107">
+      <c r="M3" s="93">
         <v>72809400</v>
       </c>
-      <c r="N3" s="91" t="s">
+      <c r="N3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="O3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="P3" s="91" t="s">
+      <c r="P3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="91" t="s">
+      <c r="Q3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="R3" s="91" t="s">
+      <c r="R3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="S3" s="91" t="s">
+      <c r="S3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="T3" s="91" t="s">
+      <c r="T3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="U3" s="91" t="s">
+      <c r="U3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="V3" s="91" t="s">
+      <c r="V3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="W3" s="91" t="s">
+      <c r="W3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="X3" s="91" t="s">
+      <c r="X3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Y3" s="91" t="s">
+      <c r="Y3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Z3" s="91" t="s">
+      <c r="Z3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AA3" s="91" t="s">
+      <c r="AA3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AB3" s="91" t="s">
+      <c r="AB3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AC3" s="91" t="s">
+      <c r="AC3" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" s="91" t="s">
+      <c r="AD3" s="77" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="77" t="s">
         <v>180</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77" t="s">
+        <v>183</v>
+      </c>
       <c r="H4" s="60">
         <v>100</v>
       </c>
-      <c r="I4" s="91" t="s">
+      <c r="I4" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91" t="s">
+      <c r="K4" s="77"/>
+      <c r="L4" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="107">
+      <c r="M4" s="93">
         <v>141965000</v>
       </c>
-      <c r="N4" s="91" t="s">
+      <c r="N4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="O4" s="91" t="s">
+      <c r="O4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="T4" s="91" t="s">
+      <c r="T4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="V4" s="91" t="s">
+      <c r="V4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="W4" s="91" t="s">
+      <c r="W4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="X4" s="91" t="s">
+      <c r="X4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" s="91" t="s">
+      <c r="Y4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" s="91" t="s">
+      <c r="Z4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" s="91" t="s">
+      <c r="AA4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" s="91" t="s">
+      <c r="AB4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AC4" s="91" t="s">
+      <c r="AC4" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="AD4" s="91" t="s">
+      <c r="AD4" s="77" t="s">
         <v>174</v>
       </c>
     </row>
